--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rbp4-Stra6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rbp4-Stra6.xlsx
@@ -555,10 +555,10 @@
         <v>5.816646</v>
       </c>
       <c r="O2">
-        <v>0.6428166476325956</v>
+        <v>0.757176135198727</v>
       </c>
       <c r="P2">
-        <v>0.6428166476325955</v>
+        <v>0.757176135198727</v>
       </c>
       <c r="Q2">
         <v>3.429808580484001</v>
@@ -567,10 +567,10 @@
         <v>30.868277224356</v>
       </c>
       <c r="S2">
-        <v>0.6428166476325956</v>
+        <v>0.757176135198727</v>
       </c>
       <c r="T2">
-        <v>0.6428166476325955</v>
+        <v>0.757176135198727</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,28 +611,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.077346666666667</v>
+        <v>0.6217929999999999</v>
       </c>
       <c r="N3">
-        <v>3.23204</v>
+        <v>1.865379</v>
       </c>
       <c r="O3">
-        <v>0.3571833523674045</v>
+        <v>0.242823864801273</v>
       </c>
       <c r="P3">
-        <v>0.3571833523674045</v>
+        <v>0.2428238648012731</v>
       </c>
       <c r="Q3">
-        <v>1.90578531416</v>
+        <v>1.099928188866</v>
       </c>
       <c r="R3">
-        <v>17.15206782744</v>
+        <v>9.899353699794</v>
       </c>
       <c r="S3">
-        <v>0.3571833523674045</v>
+        <v>0.242823864801273</v>
       </c>
       <c r="T3">
-        <v>0.3571833523674045</v>
+        <v>0.2428238648012731</v>
       </c>
     </row>
   </sheetData>
